--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2288"/>
+  <dimension ref="A1:G2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -57649,6 +57649,1656 @@
         <v>122.1500015258789</v>
       </c>
     </row>
+    <row r="2289">
+      <c r="A2289" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2289" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C2289" t="n">
+        <v>507.3999938964844</v>
+      </c>
+      <c r="D2289" t="n">
+        <v>421</v>
+      </c>
+      <c r="E2289" t="n">
+        <v>437.8999938964844</v>
+      </c>
+      <c r="F2289" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2289" t="n">
+        <v>507.3999938964844</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2290" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C2290" t="n">
+        <v>579</v>
+      </c>
+      <c r="D2290" t="n">
+        <v>540</v>
+      </c>
+      <c r="E2290" t="n">
+        <v>547.25</v>
+      </c>
+      <c r="F2290" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2290" t="n">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2291" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C2291" t="n">
+        <v>515</v>
+      </c>
+      <c r="D2291" t="n">
+        <v>480</v>
+      </c>
+      <c r="E2291" t="n">
+        <v>500.2000122070312</v>
+      </c>
+      <c r="F2291" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2291" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2292" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="C2292" t="n">
+        <v>513.0999755859375</v>
+      </c>
+      <c r="D2292" t="n">
+        <v>475</v>
+      </c>
+      <c r="E2292" t="n">
+        <v>506.5499877929688</v>
+      </c>
+      <c r="F2292" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2292" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2293" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C2293" t="n">
+        <v>411.8500061035156</v>
+      </c>
+      <c r="D2293" t="n">
+        <v>353.1000061035156</v>
+      </c>
+      <c r="E2293" t="n">
+        <v>377.1000061035156</v>
+      </c>
+      <c r="F2293" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2293" t="n">
+        <v>353.1000061035156</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294" t="inlineStr">
+        <is>
+          <t>STOVEKRAFT.NS</t>
+        </is>
+      </c>
+      <c r="B2294" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C2294" t="n">
+        <v>438.0499877929688</v>
+      </c>
+      <c r="D2294" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="E2294" t="n">
+        <v>419.5499877929688</v>
+      </c>
+      <c r="F2294" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2294" t="n">
+        <v>409.5</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2295" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C2295" t="n">
+        <v>1680.5</v>
+      </c>
+      <c r="D2295" t="n">
+        <v>1529.75</v>
+      </c>
+      <c r="E2295" t="n">
+        <v>1552.550048828125</v>
+      </c>
+      <c r="F2295" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2295" t="n">
+        <v>1680.5</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2296" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C2296" t="n">
+        <v>1308.400024414062</v>
+      </c>
+      <c r="D2296" t="n">
+        <v>1209.349975585938</v>
+      </c>
+      <c r="E2296" t="n">
+        <v>1238</v>
+      </c>
+      <c r="F2296" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2296" t="n">
+        <v>1308.400024414062</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2297" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="C2297" t="n">
+        <v>1134.199951171875</v>
+      </c>
+      <c r="D2297" t="n">
+        <v>1035.400024414062</v>
+      </c>
+      <c r="E2297" t="n">
+        <v>1098.650024414062</v>
+      </c>
+      <c r="F2297" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2297" t="n">
+        <v>1134.199951171875</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2298" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="C2298" t="n">
+        <v>1111.349975585938</v>
+      </c>
+      <c r="D2298" t="n">
+        <v>977.5499877929688</v>
+      </c>
+      <c r="E2298" t="n">
+        <v>1024.699951171875</v>
+      </c>
+      <c r="F2298" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2298" t="n">
+        <v>977.5499877929688</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2299" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="C2299" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D2299" t="n">
+        <v>1004.5</v>
+      </c>
+      <c r="E2299" t="n">
+        <v>1025.800048828125</v>
+      </c>
+      <c r="F2299" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2299" t="n">
+        <v>1004.5</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300" t="inlineStr">
+        <is>
+          <t>BUTTERFLY.NS</t>
+        </is>
+      </c>
+      <c r="B2300" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2300" t="n">
+        <v>879.5</v>
+      </c>
+      <c r="D2300" t="n">
+        <v>756</v>
+      </c>
+      <c r="E2300" t="n">
+        <v>800.5</v>
+      </c>
+      <c r="F2300" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2300" t="n">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2301" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="C2301" t="n">
+        <v>162</v>
+      </c>
+      <c r="D2301" t="n">
+        <v>138</v>
+      </c>
+      <c r="E2301" t="n">
+        <v>141.6999969482422</v>
+      </c>
+      <c r="F2301" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2301" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2302" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="C2302" t="n">
+        <v>309.4500122070312</v>
+      </c>
+      <c r="D2302" t="n">
+        <v>247</v>
+      </c>
+      <c r="E2302" t="n">
+        <v>279.25</v>
+      </c>
+      <c r="F2302" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2302" t="n">
+        <v>309.4500122070312</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2303" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="C2303" t="n">
+        <v>295</v>
+      </c>
+      <c r="D2303" t="n">
+        <v>266.2999877929688</v>
+      </c>
+      <c r="E2303" t="n">
+        <v>266.2999877929688</v>
+      </c>
+      <c r="F2303" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2303" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2304" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="C2304" t="n">
+        <v>140.8500061035156</v>
+      </c>
+      <c r="D2304" t="n">
+        <v>115</v>
+      </c>
+      <c r="E2304" t="n">
+        <v>127.5999984741211</v>
+      </c>
+      <c r="F2304" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2304" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2305" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C2305" t="n">
+        <v>222</v>
+      </c>
+      <c r="D2305" t="n">
+        <v>182</v>
+      </c>
+      <c r="E2305" t="n">
+        <v>201.75</v>
+      </c>
+      <c r="F2305" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2305" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306" t="inlineStr">
+        <is>
+          <t>UNIAUTO.BO</t>
+        </is>
+      </c>
+      <c r="B2306" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2306" t="n">
+        <v>174.5</v>
+      </c>
+      <c r="D2306" t="n">
+        <v>151</v>
+      </c>
+      <c r="E2306" t="n">
+        <v>161.3000030517578</v>
+      </c>
+      <c r="F2306" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2306" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2307" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="C2307" t="n">
+        <v>539.9500122070312</v>
+      </c>
+      <c r="D2307" t="n">
+        <v>496.2000122070312</v>
+      </c>
+      <c r="E2307" t="n">
+        <v>498.4500122070312</v>
+      </c>
+      <c r="F2307" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2307" t="n">
+        <v>539.9500122070312</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2308" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="C2308" t="n">
+        <v>1166</v>
+      </c>
+      <c r="D2308" t="n">
+        <v>1120.550048828125</v>
+      </c>
+      <c r="E2308" t="n">
+        <v>1138.099975585938</v>
+      </c>
+      <c r="F2308" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2308" t="n">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2309" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="C2309" t="n">
+        <v>1115</v>
+      </c>
+      <c r="D2309" t="n">
+        <v>992.0999755859375</v>
+      </c>
+      <c r="E2309" t="n">
+        <v>1085.150024414062</v>
+      </c>
+      <c r="F2309" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2309" t="n">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2310" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="C2310" t="n">
+        <v>476.5</v>
+      </c>
+      <c r="D2310" t="n">
+        <v>440.1000061035156</v>
+      </c>
+      <c r="E2310" t="n">
+        <v>462.1000061035156</v>
+      </c>
+      <c r="F2310" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2310" t="n">
+        <v>440.1000061035156</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2311" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C2311" t="n">
+        <v>1030</v>
+      </c>
+      <c r="D2311" t="n">
+        <v>842.2999877929688</v>
+      </c>
+      <c r="E2311" t="n">
+        <v>943.1500244140625</v>
+      </c>
+      <c r="F2311" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2311" t="n">
+        <v>842.2999877929688</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312" t="inlineStr">
+        <is>
+          <t>GRAVITA.NS</t>
+        </is>
+      </c>
+      <c r="B2312" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2312" t="n">
+        <v>885.5499877929688</v>
+      </c>
+      <c r="D2312" t="n">
+        <v>730</v>
+      </c>
+      <c r="E2312" t="n">
+        <v>804</v>
+      </c>
+      <c r="F2312" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2312" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2313" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="C2313" t="n">
+        <v>282</v>
+      </c>
+      <c r="D2313" t="n">
+        <v>242.6999969482422</v>
+      </c>
+      <c r="E2313" t="n">
+        <v>268.3500061035156</v>
+      </c>
+      <c r="F2313" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2313" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2314" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C2314" t="n">
+        <v>449</v>
+      </c>
+      <c r="D2314" t="n">
+        <v>409.5</v>
+      </c>
+      <c r="E2314" t="n">
+        <v>419.6499938964844</v>
+      </c>
+      <c r="F2314" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2314" t="n">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2315" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="C2315" t="n">
+        <v>650</v>
+      </c>
+      <c r="D2315" t="n">
+        <v>595</v>
+      </c>
+      <c r="E2315" t="n">
+        <v>600.9000244140625</v>
+      </c>
+      <c r="F2315" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2315" t="n">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2316" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="C2316" t="n">
+        <v>262.2999877929688</v>
+      </c>
+      <c r="D2316" t="n">
+        <v>240</v>
+      </c>
+      <c r="E2316" t="n">
+        <v>255.8999938964844</v>
+      </c>
+      <c r="F2316" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2316" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2317" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2317" t="n">
+        <v>410</v>
+      </c>
+      <c r="D2317" t="n">
+        <v>347.5</v>
+      </c>
+      <c r="E2317" t="n">
+        <v>393.75</v>
+      </c>
+      <c r="F2317" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2317" t="n">
+        <v>347.5</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318" t="inlineStr">
+        <is>
+          <t>JSWENERGY.NS</t>
+        </is>
+      </c>
+      <c r="B2318" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2318" t="n">
+        <v>516.7999877929688</v>
+      </c>
+      <c r="D2318" t="n">
+        <v>452.2000122070312</v>
+      </c>
+      <c r="E2318" t="n">
+        <v>497.8999938964844</v>
+      </c>
+      <c r="F2318" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2318" t="n">
+        <v>452.2000122070312</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2319" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="C2319" t="n">
+        <v>92.30000305175781</v>
+      </c>
+      <c r="D2319" t="n">
+        <v>87.19999694824219</v>
+      </c>
+      <c r="E2319" t="n">
+        <v>88.30000305175781</v>
+      </c>
+      <c r="F2319" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2319" t="n">
+        <v>92.30000305175781</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2320" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="C2320" t="n">
+        <v>90.94999694824219</v>
+      </c>
+      <c r="D2320" t="n">
+        <v>84.25</v>
+      </c>
+      <c r="E2320" t="n">
+        <v>87.84999847412109</v>
+      </c>
+      <c r="F2320" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2320" t="n">
+        <v>90.94999694824219</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2321" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C2321" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="D2321" t="n">
+        <v>170.6999969482422</v>
+      </c>
+      <c r="E2321" t="n">
+        <v>175.75</v>
+      </c>
+      <c r="F2321" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2321" t="n">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2322" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="C2322" t="n">
+        <v>83.5</v>
+      </c>
+      <c r="D2322" t="n">
+        <v>74.65000152587891</v>
+      </c>
+      <c r="E2322" t="n">
+        <v>82</v>
+      </c>
+      <c r="F2322" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2322" t="n">
+        <v>74.65000152587891</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2323" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C2323" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2323" t="n">
+        <v>130.8500061035156</v>
+      </c>
+      <c r="E2323" t="n">
+        <v>137.4499969482422</v>
+      </c>
+      <c r="F2323" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2323" t="n">
+        <v>130.8500061035156</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324" t="inlineStr">
+        <is>
+          <t>ASHOKA.NS</t>
+        </is>
+      </c>
+      <c r="B2324" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2324" t="n">
+        <v>168.1499938964844</v>
+      </c>
+      <c r="D2324" t="n">
+        <v>140.8999938964844</v>
+      </c>
+      <c r="E2324" t="n">
+        <v>163.1999969482422</v>
+      </c>
+      <c r="F2324" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2324" t="n">
+        <v>140.8999938964844</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2325" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="C2325" t="n">
+        <v>294.8999938964844</v>
+      </c>
+      <c r="D2325" t="n">
+        <v>256.1000061035156</v>
+      </c>
+      <c r="E2325" t="n">
+        <v>282.6000061035156</v>
+      </c>
+      <c r="F2325" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2325" t="n">
+        <v>294.8999938964844</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2326" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C2326" t="n">
+        <v>612</v>
+      </c>
+      <c r="D2326" t="n">
+        <v>506.0499877929688</v>
+      </c>
+      <c r="E2326" t="n">
+        <v>593.7000122070312</v>
+      </c>
+      <c r="F2326" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2326" t="n">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2327" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="C2327" t="n">
+        <v>560.7999877929688</v>
+      </c>
+      <c r="D2327" t="n">
+        <v>491.2000122070312</v>
+      </c>
+      <c r="E2327" t="n">
+        <v>508.7000122070312</v>
+      </c>
+      <c r="F2327" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2327" t="n">
+        <v>560.7999877929688</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2328" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="C2328" t="n">
+        <v>106.4499969482422</v>
+      </c>
+      <c r="D2328" t="n">
+        <v>89.59999847412109</v>
+      </c>
+      <c r="E2328" t="n">
+        <v>90.09999847412109</v>
+      </c>
+      <c r="F2328" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2328" t="n">
+        <v>89.59999847412109</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2329" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C2329" t="n">
+        <v>96.84999847412109</v>
+      </c>
+      <c r="D2329" t="n">
+        <v>86.15000152587891</v>
+      </c>
+      <c r="E2329" t="n">
+        <v>95.25</v>
+      </c>
+      <c r="F2329" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2329" t="n">
+        <v>86.15000152587891</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330" t="inlineStr">
+        <is>
+          <t>HBLPOWER.NS</t>
+        </is>
+      </c>
+      <c r="B2330" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2330" t="n">
+        <v>478.3999938964844</v>
+      </c>
+      <c r="D2330" t="n">
+        <v>378.2000122070312</v>
+      </c>
+      <c r="E2330" t="n">
+        <v>472.5499877929688</v>
+      </c>
+      <c r="F2330" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2330" t="n">
+        <v>378.2000122070312</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2331" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="C2331" t="n">
+        <v>657.9000244140625</v>
+      </c>
+      <c r="D2331" t="n">
+        <v>615</v>
+      </c>
+      <c r="E2331" t="n">
+        <v>630.9500122070312</v>
+      </c>
+      <c r="F2331" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2331" t="n">
+        <v>657.9000244140625</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2332" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C2332" t="n">
+        <v>802.5999755859375</v>
+      </c>
+      <c r="D2332" t="n">
+        <v>683.9500122070312</v>
+      </c>
+      <c r="E2332" t="n">
+        <v>707.2000122070312</v>
+      </c>
+      <c r="F2332" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2332" t="n">
+        <v>802.5999755859375</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2333" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C2333" t="n">
+        <v>976</v>
+      </c>
+      <c r="D2333" t="n">
+        <v>860.2000122070312</v>
+      </c>
+      <c r="E2333" t="n">
+        <v>874.1500244140625</v>
+      </c>
+      <c r="F2333" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2333" t="n">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2334" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2334" t="n">
+        <v>688.7999877929688</v>
+      </c>
+      <c r="D2334" t="n">
+        <v>621.4500122070312</v>
+      </c>
+      <c r="E2334" t="n">
+        <v>683</v>
+      </c>
+      <c r="F2334" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2334" t="n">
+        <v>621.4500122070312</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2335" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="C2335" t="n">
+        <v>724.8499755859375</v>
+      </c>
+      <c r="D2335" t="n">
+        <v>681.7999877929688</v>
+      </c>
+      <c r="E2335" t="n">
+        <v>697.5999755859375</v>
+      </c>
+      <c r="F2335" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2335" t="n">
+        <v>681.7999877929688</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336" t="inlineStr">
+        <is>
+          <t>INDIAGLYCO.NS</t>
+        </is>
+      </c>
+      <c r="B2336" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2336" t="n">
+        <v>846.8499755859375</v>
+      </c>
+      <c r="D2336" t="n">
+        <v>747.3499755859375</v>
+      </c>
+      <c r="E2336" t="n">
+        <v>776.2999877929688</v>
+      </c>
+      <c r="F2336" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2336" t="n">
+        <v>747.3499755859375</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2337" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="C2337" t="n">
+        <v>72.30000305175781</v>
+      </c>
+      <c r="D2337" t="n">
+        <v>68.15000152587891</v>
+      </c>
+      <c r="E2337" t="n">
+        <v>68.40000152587891</v>
+      </c>
+      <c r="F2337" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2337" t="n">
+        <v>72.30000305175781</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2338" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="C2338" t="n">
+        <v>80.94999694824219</v>
+      </c>
+      <c r="D2338" t="n">
+        <v>74.55000305175781</v>
+      </c>
+      <c r="E2338" t="n">
+        <v>76.15000152587891</v>
+      </c>
+      <c r="F2338" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2338" t="n">
+        <v>80.94999694824219</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2339" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C2339" t="n">
+        <v>117.8000030517578</v>
+      </c>
+      <c r="D2339" t="n">
+        <v>102.0999984741211</v>
+      </c>
+      <c r="E2339" t="n">
+        <v>108.4000015258789</v>
+      </c>
+      <c r="F2339" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2339" t="n">
+        <v>117.8000030517578</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2340" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="C2340" t="n">
+        <v>66.84999847412109</v>
+      </c>
+      <c r="D2340" t="n">
+        <v>63.45000076293945</v>
+      </c>
+      <c r="E2340" t="n">
+        <v>64.09999847412109</v>
+      </c>
+      <c r="F2340" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2340" t="n">
+        <v>63.45000076293945</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2341" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2341" t="n">
+        <v>68.94999694824219</v>
+      </c>
+      <c r="D2341" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="E2341" t="n">
+        <v>64.59999847412109</v>
+      </c>
+      <c r="F2341" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2341" t="n">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342" t="inlineStr">
+        <is>
+          <t>HFCL.NS</t>
+        </is>
+      </c>
+      <c r="B2342" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2342" t="n">
+        <v>102.9499969482422</v>
+      </c>
+      <c r="D2342" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="E2342" t="n">
+        <v>90.09999847412109</v>
+      </c>
+      <c r="F2342" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2342" t="n">
+        <v>80.25</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2343" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="C2343" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D2343" t="n">
+        <v>1030.050048828125</v>
+      </c>
+      <c r="E2343" t="n">
+        <v>1091.150024414062</v>
+      </c>
+      <c r="F2343" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2343" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2344" s="2" t="n">
+        <v>45278</v>
+      </c>
+      <c r="C2344" t="n">
+        <v>1225</v>
+      </c>
+      <c r="D2344" t="n">
+        <v>1101.550048828125</v>
+      </c>
+      <c r="E2344" t="n">
+        <v>1137.050048828125</v>
+      </c>
+      <c r="F2344" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2344" t="n">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2345" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="C2345" t="n">
+        <v>1297.800048828125</v>
+      </c>
+      <c r="D2345" t="n">
+        <v>1141.099975585938</v>
+      </c>
+      <c r="E2345" t="n">
+        <v>1251.199951171875</v>
+      </c>
+      <c r="F2345" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2345" t="n">
+        <v>1297.800048828125</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2346" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="C2346" t="n">
+        <v>878</v>
+      </c>
+      <c r="D2346" t="n">
+        <v>827.0499877929688</v>
+      </c>
+      <c r="E2346" t="n">
+        <v>854.9500122070312</v>
+      </c>
+      <c r="F2346" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2346" t="n">
+        <v>827.0499877929688</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2347" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="C2347" t="n">
+        <v>1022.849975585938</v>
+      </c>
+      <c r="D2347" t="n">
+        <v>871</v>
+      </c>
+      <c r="E2347" t="n">
+        <v>881.8499755859375</v>
+      </c>
+      <c r="F2347" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2347" t="n">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348" t="inlineStr">
+        <is>
+          <t>XPROINDIA.NS</t>
+        </is>
+      </c>
+      <c r="B2348" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2348" t="n">
+        <v>1180.949951171875</v>
+      </c>
+      <c r="D2348" t="n">
+        <v>1013.950012207031</v>
+      </c>
+      <c r="E2348" t="n">
+        <v>1069.5</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>1013.950012207031</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2349" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="C2349" t="n">
+        <v>1393</v>
+      </c>
+      <c r="D2349" t="n">
+        <v>1285</v>
+      </c>
+      <c r="E2349" t="n">
+        <v>1293.900024414062</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2350" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="C2350" t="n">
+        <v>1713.800048828125</v>
+      </c>
+      <c r="D2350" t="n">
+        <v>1574</v>
+      </c>
+      <c r="E2350" t="n">
+        <v>1640.349975585938</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>1713.800048828125</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2351" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="C2351" t="n">
+        <v>1609</v>
+      </c>
+      <c r="D2351" t="n">
+        <v>1424</v>
+      </c>
+      <c r="E2351" t="n">
+        <v>1447.400024414062</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2352" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="C2352" t="n">
+        <v>1277.949951171875</v>
+      </c>
+      <c r="D2352" t="n">
+        <v>1197</v>
+      </c>
+      <c r="E2352" t="n">
+        <v>1247.199951171875</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2353" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2353" t="n">
+        <v>1319.900024414062</v>
+      </c>
+      <c r="D2353" t="n">
+        <v>1192.75</v>
+      </c>
+      <c r="E2353" t="n">
+        <v>1275.800048828125</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>1192.75</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354" t="inlineStr">
+        <is>
+          <t>PATANJALI.NS</t>
+        </is>
+      </c>
+      <c r="B2354" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2354" t="n">
+        <v>1542</v>
+      </c>
+      <c r="D2354" t="n">
+        <v>1281</v>
+      </c>
+      <c r="E2354" t="n">
+        <v>1400.75</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>1281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2396"/>
+  <dimension ref="A1:G2402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60349,6 +60349,156 @@
         <v>221</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2397" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="C2397" t="n">
+        <v>334.7000122070312</v>
+      </c>
+      <c r="D2397" t="n">
+        <v>306.6499938964844</v>
+      </c>
+      <c r="E2397" t="n">
+        <v>309.3500061035156</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>334.7000122070312</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2398" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="C2398" t="n">
+        <v>312.6000061035156</v>
+      </c>
+      <c r="D2398" t="n">
+        <v>287.5499877929688</v>
+      </c>
+      <c r="E2398" t="n">
+        <v>290.8999938964844</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>312.6000061035156</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2399" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="C2399" t="n">
+        <v>861.8499755859375</v>
+      </c>
+      <c r="D2399" t="n">
+        <v>817.0999755859375</v>
+      </c>
+      <c r="E2399" t="n">
+        <v>833.4000244140625</v>
+      </c>
+      <c r="F2399" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2399" t="n">
+        <v>861.8499755859375</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2400" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="C2400" t="n">
+        <v>305.75</v>
+      </c>
+      <c r="D2400" t="n">
+        <v>250.25</v>
+      </c>
+      <c r="E2400" t="n">
+        <v>267.7999877929688</v>
+      </c>
+      <c r="F2400" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2400" t="n">
+        <v>250.25</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2401" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C2401" t="n">
+        <v>266.5</v>
+      </c>
+      <c r="D2401" t="n">
+        <v>250.5</v>
+      </c>
+      <c r="E2401" t="n">
+        <v>261.1499938964844</v>
+      </c>
+      <c r="F2401" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2401" t="n">
+        <v>250.5</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402" t="inlineStr">
+        <is>
+          <t>BSOFT.NS</t>
+        </is>
+      </c>
+      <c r="B2402" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="C2402" t="n">
+        <v>623.7999877929688</v>
+      </c>
+      <c r="D2402" t="n">
+        <v>564.5999755859375</v>
+      </c>
+      <c r="E2402" t="n">
+        <v>614.1500244140625</v>
+      </c>
+      <c r="F2402" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2402" t="n">
+        <v>564.5999755859375</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2402"/>
+  <dimension ref="A1:G2408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60499,6 +60499,156 @@
         <v>564.5999755859375</v>
       </c>
     </row>
+    <row r="2403">
+      <c r="A2403" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2403" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C2403" t="n">
+        <v>67927.2265625</v>
+      </c>
+      <c r="D2403" t="n">
+        <v>66735.84375</v>
+      </c>
+      <c r="E2403" t="n">
+        <v>67838.6328125</v>
+      </c>
+      <c r="F2403" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2403" t="n">
+        <v>67927.2265625</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2404" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C2404" t="n">
+        <v>73427.59375</v>
+      </c>
+      <c r="D2404" t="n">
+        <v>70665.5</v>
+      </c>
+      <c r="E2404" t="n">
+        <v>71683.2265625</v>
+      </c>
+      <c r="F2404" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2404" t="n">
+        <v>73427.59375</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2405" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C2405" t="n">
+        <v>75124.28125</v>
+      </c>
+      <c r="D2405" t="n">
+        <v>74189.3125</v>
+      </c>
+      <c r="E2405" t="n">
+        <v>74244.8984375</v>
+      </c>
+      <c r="F2405" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2405" t="n">
+        <v>75124.28125</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2406" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="C2406" t="n">
+        <v>58418.78125</v>
+      </c>
+      <c r="D2406" t="n">
+        <v>57084.91015625</v>
+      </c>
+      <c r="E2406" t="n">
+        <v>57527.1015625</v>
+      </c>
+      <c r="F2406" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2406" t="n">
+        <v>57084.91015625</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2407" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="C2407" t="n">
+        <v>65473.26953125</v>
+      </c>
+      <c r="D2407" t="n">
+        <v>64723.62890625</v>
+      </c>
+      <c r="E2407" t="n">
+        <v>65387.16015625</v>
+      </c>
+      <c r="F2407" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2407" t="n">
+        <v>64723.62890625</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408" t="inlineStr">
+        <is>
+          <t>^BSESN</t>
+        </is>
+      </c>
+      <c r="B2408" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2408" t="n">
+        <v>65453.921875</v>
+      </c>
+      <c r="D2408" t="n">
+        <v>63092.98046875</v>
+      </c>
+      <c r="E2408" t="n">
+        <v>63782.80078125</v>
+      </c>
+      <c r="F2408" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2408" t="n">
+        <v>63092.98046875</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -59902,451 +59902,451 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2379" s="2" t="n">
-        <v>45047</v>
+        <v>45180</v>
       </c>
       <c r="C2379" t="n">
-        <v>309.7999877929688</v>
+        <v>67927.2265625</v>
       </c>
       <c r="D2379" t="n">
-        <v>296.1499938964844</v>
+        <v>66735.84375</v>
       </c>
       <c r="E2379" t="n">
-        <v>296.6499938964844</v>
+        <v>67838.6328125</v>
       </c>
       <c r="F2379" t="n">
         <v>1</v>
       </c>
       <c r="G2379" t="n">
-        <v>309.7999877929688</v>
+        <v>67927.2265625</v>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2380" s="2" t="n">
-        <v>45138</v>
+        <v>45306</v>
       </c>
       <c r="C2380" t="n">
-        <v>329.2999877929688</v>
+        <v>73427.59375</v>
       </c>
       <c r="D2380" t="n">
-        <v>313.7000122070312</v>
+        <v>70665.5</v>
       </c>
       <c r="E2380" t="n">
-        <v>318.2999877929688</v>
+        <v>71683.2265625</v>
       </c>
       <c r="F2380" t="n">
         <v>1</v>
       </c>
       <c r="G2380" t="n">
-        <v>329.2999877929688</v>
+        <v>73427.59375</v>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2381" s="2" t="n">
-        <v>45348</v>
+        <v>45390</v>
       </c>
       <c r="C2381" t="n">
-        <v>480.4500122070312</v>
+        <v>75124.28125</v>
       </c>
       <c r="D2381" t="n">
-        <v>453.2000122070312</v>
+        <v>74189.3125</v>
       </c>
       <c r="E2381" t="n">
-        <v>463.4500122070312</v>
+        <v>74244.8984375</v>
       </c>
       <c r="F2381" t="n">
         <v>1</v>
       </c>
       <c r="G2381" t="n">
-        <v>480.4500122070312</v>
+        <v>75124.28125</v>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2382" s="2" t="n">
-        <v>45152</v>
+        <v>45005</v>
       </c>
       <c r="C2382" t="n">
-        <v>298.3999938964844</v>
+        <v>58418.78125</v>
       </c>
       <c r="D2382" t="n">
-        <v>287.7000122070312</v>
+        <v>57084.91015625</v>
       </c>
       <c r="E2382" t="n">
-        <v>290.3500061035156</v>
+        <v>57527.1015625</v>
       </c>
       <c r="F2382" t="n">
         <v>2</v>
       </c>
       <c r="G2382" t="n">
-        <v>287.7000122070312</v>
+        <v>57084.91015625</v>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2383" s="2" t="n">
-        <v>45222</v>
+        <v>45166</v>
       </c>
       <c r="C2383" t="n">
-        <v>345.6000061035156</v>
+        <v>65473.26953125</v>
       </c>
       <c r="D2383" t="n">
-        <v>318.9500122070312</v>
+        <v>64723.62890625</v>
       </c>
       <c r="E2383" t="n">
-        <v>326.2999877929688</v>
+        <v>65387.16015625</v>
       </c>
       <c r="F2383" t="n">
         <v>2</v>
       </c>
       <c r="G2383" t="n">
-        <v>318.9500122070312</v>
+        <v>64723.62890625</v>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2384" s="2" t="n">
-        <v>45425</v>
+        <v>45222</v>
       </c>
       <c r="C2384" t="n">
-        <v>410.2000122070312</v>
+        <v>65453.921875</v>
       </c>
       <c r="D2384" t="n">
-        <v>389.3500061035156</v>
+        <v>63092.98046875</v>
       </c>
       <c r="E2384" t="n">
-        <v>406.75</v>
+        <v>63782.80078125</v>
       </c>
       <c r="F2384" t="n">
         <v>2</v>
       </c>
       <c r="G2384" t="n">
-        <v>389.3500061035156</v>
+        <v>63092.98046875</v>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2385" s="2" t="n">
-        <v>44788</v>
+        <v>45047</v>
       </c>
       <c r="C2385" t="n">
-        <v>408</v>
+        <v>309.7999877929688</v>
       </c>
       <c r="D2385" t="n">
-        <v>384.5499877929688</v>
+        <v>296.1499938964844</v>
       </c>
       <c r="E2385" t="n">
-        <v>386.3500061035156</v>
+        <v>296.6499938964844</v>
       </c>
       <c r="F2385" t="n">
         <v>1</v>
       </c>
       <c r="G2385" t="n">
-        <v>408</v>
+        <v>309.7999877929688</v>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2386" s="2" t="n">
-        <v>44914</v>
+        <v>45138</v>
       </c>
       <c r="C2386" t="n">
-        <v>451</v>
+        <v>329.2999877929688</v>
       </c>
       <c r="D2386" t="n">
-        <v>406.8999938964844</v>
+        <v>313.7000122070312</v>
       </c>
       <c r="E2386" t="n">
-        <v>429.1499938964844</v>
+        <v>318.2999877929688</v>
       </c>
       <c r="F2386" t="n">
         <v>1</v>
       </c>
       <c r="G2386" t="n">
-        <v>451</v>
+        <v>329.2999877929688</v>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2387" s="2" t="n">
-        <v>45187</v>
+        <v>45348</v>
       </c>
       <c r="C2387" t="n">
-        <v>880</v>
+        <v>480.4500122070312</v>
       </c>
       <c r="D2387" t="n">
-        <v>775</v>
+        <v>453.2000122070312</v>
       </c>
       <c r="E2387" t="n">
-        <v>802.7999877929688</v>
+        <v>463.4500122070312</v>
       </c>
       <c r="F2387" t="n">
         <v>1</v>
       </c>
       <c r="G2387" t="n">
-        <v>880</v>
+        <v>480.4500122070312</v>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2388" s="2" t="n">
-        <v>45243</v>
+        <v>45152</v>
       </c>
       <c r="C2388" t="n">
-        <v>783.4000244140625</v>
+        <v>298.3999938964844</v>
       </c>
       <c r="D2388" t="n">
-        <v>722.0999755859375</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="E2388" t="n">
-        <v>775.9500122070312</v>
+        <v>290.3500061035156</v>
       </c>
       <c r="F2388" t="n">
         <v>2</v>
       </c>
       <c r="G2388" t="n">
-        <v>722.0999755859375</v>
+        <v>287.7000122070312</v>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2389" s="2" t="n">
-        <v>45334</v>
+        <v>45222</v>
       </c>
       <c r="C2389" t="n">
-        <v>891</v>
+        <v>345.6000061035156</v>
       </c>
       <c r="D2389" t="n">
-        <v>771</v>
+        <v>318.9500122070312</v>
       </c>
       <c r="E2389" t="n">
-        <v>872.25</v>
+        <v>326.2999877929688</v>
       </c>
       <c r="F2389" t="n">
         <v>2</v>
       </c>
       <c r="G2389" t="n">
-        <v>771</v>
+        <v>318.9500122070312</v>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2390" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2390" t="n">
-        <v>1048</v>
+        <v>410.2000122070312</v>
       </c>
       <c r="D2390" t="n">
-        <v>985.2000122070312</v>
+        <v>389.3500061035156</v>
       </c>
       <c r="E2390" t="n">
-        <v>1042.449951171875</v>
+        <v>406.75</v>
       </c>
       <c r="F2390" t="n">
         <v>2</v>
       </c>
       <c r="G2390" t="n">
-        <v>985.2000122070312</v>
+        <v>389.3500061035156</v>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2391" s="2" t="n">
-        <v>44816</v>
+        <v>44788</v>
       </c>
       <c r="C2391" t="n">
-        <v>114.6500015258789</v>
+        <v>408</v>
       </c>
       <c r="D2391" t="n">
-        <v>108.5999984741211</v>
+        <v>384.5499877929688</v>
       </c>
       <c r="E2391" t="n">
-        <v>111</v>
+        <v>386.3500061035156</v>
       </c>
       <c r="F2391" t="n">
         <v>1</v>
       </c>
       <c r="G2391" t="n">
-        <v>114.6500015258789</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2392" s="2" t="n">
-        <v>44865</v>
+        <v>44914</v>
       </c>
       <c r="C2392" t="n">
-        <v>112.1999969482422</v>
+        <v>451</v>
       </c>
       <c r="D2392" t="n">
-        <v>105.1500015258789</v>
+        <v>406.8999938964844</v>
       </c>
       <c r="E2392" t="n">
-        <v>108.9499969482422</v>
+        <v>429.1499938964844</v>
       </c>
       <c r="F2392" t="n">
         <v>1</v>
       </c>
       <c r="G2392" t="n">
-        <v>112.1999969482422</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2393" s="2" t="n">
-        <v>45180</v>
+        <v>45187</v>
       </c>
       <c r="C2393" t="n">
-        <v>147.1499938964844</v>
+        <v>880</v>
       </c>
       <c r="D2393" t="n">
-        <v>133.3000030517578</v>
+        <v>775</v>
       </c>
       <c r="E2393" t="n">
-        <v>135.6999969482422</v>
+        <v>802.7999877929688</v>
       </c>
       <c r="F2393" t="n">
         <v>1</v>
       </c>
       <c r="G2393" t="n">
-        <v>147.1499938964844</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2394" s="2" t="n">
-        <v>45222</v>
+        <v>45243</v>
       </c>
       <c r="C2394" t="n">
-        <v>135.8999938964844</v>
+        <v>783.4000244140625</v>
       </c>
       <c r="D2394" t="n">
-        <v>127</v>
+        <v>722.0999755859375</v>
       </c>
       <c r="E2394" t="n">
-        <v>132.1999969482422</v>
+        <v>775.9500122070312</v>
       </c>
       <c r="F2394" t="n">
         <v>2</v>
       </c>
       <c r="G2394" t="n">
-        <v>127</v>
+        <v>722.0999755859375</v>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2395" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C2395" t="n">
-        <v>190.3999938964844</v>
+        <v>891</v>
       </c>
       <c r="D2395" t="n">
-        <v>171.75</v>
+        <v>771</v>
       </c>
       <c r="E2395" t="n">
-        <v>188.3000030517578</v>
+        <v>872.25</v>
       </c>
       <c r="F2395" t="n">
         <v>2</v>
       </c>
       <c r="G2395" t="n">
-        <v>171.75</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2396" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2396" t="n">
-        <v>260.6000061035156</v>
+        <v>1048</v>
       </c>
       <c r="D2396" t="n">
-        <v>221</v>
+        <v>985.2000122070312</v>
       </c>
       <c r="E2396" t="n">
-        <v>258.7999877929688</v>
+        <v>1042.449951171875</v>
       </c>
       <c r="F2396" t="n">
         <v>2</v>
       </c>
       <c r="G2396" t="n">
-        <v>221</v>
+        <v>985.2000122070312</v>
       </c>
     </row>
     <row r="2397">
@@ -60502,151 +60502,151 @@
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2403" s="2" t="n">
-        <v>45180</v>
+        <v>44816</v>
       </c>
       <c r="C2403" t="n">
-        <v>67927.2265625</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="D2403" t="n">
-        <v>66735.84375</v>
+        <v>108.5999984741211</v>
       </c>
       <c r="E2403" t="n">
-        <v>67838.6328125</v>
+        <v>111</v>
       </c>
       <c r="F2403" t="n">
         <v>1</v>
       </c>
       <c r="G2403" t="n">
-        <v>67927.2265625</v>
+        <v>114.6500015258789</v>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2404" s="2" t="n">
-        <v>45306</v>
+        <v>44865</v>
       </c>
       <c r="C2404" t="n">
-        <v>73427.59375</v>
+        <v>112.1999969482422</v>
       </c>
       <c r="D2404" t="n">
-        <v>70665.5</v>
+        <v>105.1500015258789</v>
       </c>
       <c r="E2404" t="n">
-        <v>71683.2265625</v>
+        <v>108.9499969482422</v>
       </c>
       <c r="F2404" t="n">
         <v>1</v>
       </c>
       <c r="G2404" t="n">
-        <v>73427.59375</v>
+        <v>112.1999969482422</v>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2405" s="2" t="n">
-        <v>45390</v>
+        <v>45180</v>
       </c>
       <c r="C2405" t="n">
-        <v>75124.28125</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D2405" t="n">
-        <v>74189.3125</v>
+        <v>133.3000030517578</v>
       </c>
       <c r="E2405" t="n">
-        <v>74244.8984375</v>
+        <v>135.6999969482422</v>
       </c>
       <c r="F2405" t="n">
         <v>1</v>
       </c>
       <c r="G2405" t="n">
-        <v>75124.28125</v>
+        <v>147.1499938964844</v>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2406" s="2" t="n">
-        <v>45005</v>
+        <v>45222</v>
       </c>
       <c r="C2406" t="n">
-        <v>58418.78125</v>
+        <v>135.8999938964844</v>
       </c>
       <c r="D2406" t="n">
-        <v>57084.91015625</v>
+        <v>127</v>
       </c>
       <c r="E2406" t="n">
-        <v>57527.1015625</v>
+        <v>132.1999969482422</v>
       </c>
       <c r="F2406" t="n">
         <v>2</v>
       </c>
       <c r="G2406" t="n">
-        <v>57084.91015625</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2407" s="2" t="n">
-        <v>45166</v>
+        <v>45334</v>
       </c>
       <c r="C2407" t="n">
-        <v>65473.26953125</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="D2407" t="n">
-        <v>64723.62890625</v>
+        <v>171.75</v>
       </c>
       <c r="E2407" t="n">
-        <v>65387.16015625</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="F2407" t="n">
         <v>2</v>
       </c>
       <c r="G2407" t="n">
-        <v>64723.62890625</v>
+        <v>171.75</v>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2408" s="2" t="n">
-        <v>45222</v>
+        <v>45425</v>
       </c>
       <c r="C2408" t="n">
-        <v>65453.921875</v>
+        <v>260.6000061035156</v>
       </c>
       <c r="D2408" t="n">
-        <v>63092.98046875</v>
+        <v>221</v>
       </c>
       <c r="E2408" t="n">
-        <v>63782.80078125</v>
+        <v>258.7999877929688</v>
       </c>
       <c r="F2408" t="n">
         <v>2</v>
       </c>
       <c r="G2408" t="n">
-        <v>63092.98046875</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -59902,751 +59902,751 @@
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2379" s="2" t="n">
-        <v>45180</v>
+        <v>45047</v>
       </c>
       <c r="C2379" t="n">
-        <v>67927.2265625</v>
+        <v>309.7999877929688</v>
       </c>
       <c r="D2379" t="n">
-        <v>66735.84375</v>
+        <v>296.1499938964844</v>
       </c>
       <c r="E2379" t="n">
-        <v>67838.6328125</v>
+        <v>296.6499938964844</v>
       </c>
       <c r="F2379" t="n">
         <v>1</v>
       </c>
       <c r="G2379" t="n">
-        <v>67927.2265625</v>
+        <v>309.7999877929688</v>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2380" s="2" t="n">
-        <v>45306</v>
+        <v>45138</v>
       </c>
       <c r="C2380" t="n">
-        <v>73427.59375</v>
+        <v>329.2999877929688</v>
       </c>
       <c r="D2380" t="n">
-        <v>70665.5</v>
+        <v>313.7000122070312</v>
       </c>
       <c r="E2380" t="n">
-        <v>71683.2265625</v>
+        <v>318.2999877929688</v>
       </c>
       <c r="F2380" t="n">
         <v>1</v>
       </c>
       <c r="G2380" t="n">
-        <v>73427.59375</v>
+        <v>329.2999877929688</v>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2381" s="2" t="n">
-        <v>45390</v>
+        <v>45348</v>
       </c>
       <c r="C2381" t="n">
-        <v>75124.28125</v>
+        <v>480.4500122070312</v>
       </c>
       <c r="D2381" t="n">
-        <v>74189.3125</v>
+        <v>453.2000122070312</v>
       </c>
       <c r="E2381" t="n">
-        <v>74244.8984375</v>
+        <v>463.4500122070312</v>
       </c>
       <c r="F2381" t="n">
         <v>1</v>
       </c>
       <c r="G2381" t="n">
-        <v>75124.28125</v>
+        <v>480.4500122070312</v>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2382" s="2" t="n">
-        <v>45005</v>
+        <v>45152</v>
       </c>
       <c r="C2382" t="n">
-        <v>58418.78125</v>
+        <v>298.3999938964844</v>
       </c>
       <c r="D2382" t="n">
-        <v>57084.91015625</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="E2382" t="n">
-        <v>57527.1015625</v>
+        <v>290.3500061035156</v>
       </c>
       <c r="F2382" t="n">
         <v>2</v>
       </c>
       <c r="G2382" t="n">
-        <v>57084.91015625</v>
+        <v>287.7000122070312</v>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2383" s="2" t="n">
-        <v>45166</v>
+        <v>45222</v>
       </c>
       <c r="C2383" t="n">
-        <v>65473.26953125</v>
+        <v>345.6000061035156</v>
       </c>
       <c r="D2383" t="n">
-        <v>64723.62890625</v>
+        <v>318.9500122070312</v>
       </c>
       <c r="E2383" t="n">
-        <v>65387.16015625</v>
+        <v>326.2999877929688</v>
       </c>
       <c r="F2383" t="n">
         <v>2</v>
       </c>
       <c r="G2383" t="n">
-        <v>64723.62890625</v>
+        <v>318.9500122070312</v>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2384" s="2" t="n">
-        <v>45222</v>
+        <v>45425</v>
       </c>
       <c r="C2384" t="n">
-        <v>65453.921875</v>
+        <v>410.2000122070312</v>
       </c>
       <c r="D2384" t="n">
-        <v>63092.98046875</v>
+        <v>389.3500061035156</v>
       </c>
       <c r="E2384" t="n">
-        <v>63782.80078125</v>
+        <v>406.75</v>
       </c>
       <c r="F2384" t="n">
         <v>2</v>
       </c>
       <c r="G2384" t="n">
-        <v>63092.98046875</v>
+        <v>389.3500061035156</v>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2385" s="2" t="n">
-        <v>45047</v>
+        <v>44788</v>
       </c>
       <c r="C2385" t="n">
-        <v>309.7999877929688</v>
+        <v>408</v>
       </c>
       <c r="D2385" t="n">
-        <v>296.1499938964844</v>
+        <v>384.5499877929688</v>
       </c>
       <c r="E2385" t="n">
-        <v>296.6499938964844</v>
+        <v>386.3500061035156</v>
       </c>
       <c r="F2385" t="n">
         <v>1</v>
       </c>
       <c r="G2385" t="n">
-        <v>309.7999877929688</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2386" s="2" t="n">
-        <v>45138</v>
+        <v>44914</v>
       </c>
       <c r="C2386" t="n">
-        <v>329.2999877929688</v>
+        <v>451</v>
       </c>
       <c r="D2386" t="n">
-        <v>313.7000122070312</v>
+        <v>406.8999938964844</v>
       </c>
       <c r="E2386" t="n">
-        <v>318.2999877929688</v>
+        <v>429.1499938964844</v>
       </c>
       <c r="F2386" t="n">
         <v>1</v>
       </c>
       <c r="G2386" t="n">
-        <v>329.2999877929688</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2387" s="2" t="n">
-        <v>45348</v>
+        <v>45187</v>
       </c>
       <c r="C2387" t="n">
-        <v>480.4500122070312</v>
+        <v>880</v>
       </c>
       <c r="D2387" t="n">
-        <v>453.2000122070312</v>
+        <v>775</v>
       </c>
       <c r="E2387" t="n">
-        <v>463.4500122070312</v>
+        <v>802.7999877929688</v>
       </c>
       <c r="F2387" t="n">
         <v>1</v>
       </c>
       <c r="G2387" t="n">
-        <v>480.4500122070312</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2388" s="2" t="n">
-        <v>45152</v>
+        <v>45243</v>
       </c>
       <c r="C2388" t="n">
-        <v>298.3999938964844</v>
+        <v>783.4000244140625</v>
       </c>
       <c r="D2388" t="n">
-        <v>287.7000122070312</v>
+        <v>722.0999755859375</v>
       </c>
       <c r="E2388" t="n">
-        <v>290.3500061035156</v>
+        <v>775.9500122070312</v>
       </c>
       <c r="F2388" t="n">
         <v>2</v>
       </c>
       <c r="G2388" t="n">
-        <v>287.7000122070312</v>
+        <v>722.0999755859375</v>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2389" s="2" t="n">
-        <v>45222</v>
+        <v>45334</v>
       </c>
       <c r="C2389" t="n">
-        <v>345.6000061035156</v>
+        <v>891</v>
       </c>
       <c r="D2389" t="n">
-        <v>318.9500122070312</v>
+        <v>771</v>
       </c>
       <c r="E2389" t="n">
-        <v>326.2999877929688</v>
+        <v>872.25</v>
       </c>
       <c r="F2389" t="n">
         <v>2</v>
       </c>
       <c r="G2389" t="n">
-        <v>318.9500122070312</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2390" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2390" t="n">
-        <v>410.2000122070312</v>
+        <v>1048</v>
       </c>
       <c r="D2390" t="n">
-        <v>389.3500061035156</v>
+        <v>985.2000122070312</v>
       </c>
       <c r="E2390" t="n">
-        <v>406.75</v>
+        <v>1042.449951171875</v>
       </c>
       <c r="F2390" t="n">
         <v>2</v>
       </c>
       <c r="G2390" t="n">
-        <v>389.3500061035156</v>
+        <v>985.2000122070312</v>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2391" s="2" t="n">
-        <v>44788</v>
+        <v>44900</v>
       </c>
       <c r="C2391" t="n">
-        <v>408</v>
+        <v>334.7000122070312</v>
       </c>
       <c r="D2391" t="n">
-        <v>384.5499877929688</v>
+        <v>306.6499938964844</v>
       </c>
       <c r="E2391" t="n">
-        <v>386.3500061035156</v>
+        <v>309.3500061035156</v>
       </c>
       <c r="F2391" t="n">
         <v>1</v>
       </c>
       <c r="G2391" t="n">
-        <v>408</v>
+        <v>334.7000122070312</v>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2392" s="2" t="n">
-        <v>44914</v>
+        <v>44949</v>
       </c>
       <c r="C2392" t="n">
-        <v>451</v>
+        <v>312.6000061035156</v>
       </c>
       <c r="D2392" t="n">
-        <v>406.8999938964844</v>
+        <v>287.5499877929688</v>
       </c>
       <c r="E2392" t="n">
-        <v>429.1499938964844</v>
+        <v>290.8999938964844</v>
       </c>
       <c r="F2392" t="n">
         <v>1</v>
       </c>
       <c r="G2392" t="n">
-        <v>451</v>
+        <v>312.6000061035156</v>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2393" s="2" t="n">
-        <v>45187</v>
+        <v>45327</v>
       </c>
       <c r="C2393" t="n">
-        <v>880</v>
+        <v>861.8499755859375</v>
       </c>
       <c r="D2393" t="n">
-        <v>775</v>
+        <v>817.0999755859375</v>
       </c>
       <c r="E2393" t="n">
-        <v>802.7999877929688</v>
+        <v>833.4000244140625</v>
       </c>
       <c r="F2393" t="n">
         <v>1</v>
       </c>
       <c r="G2393" t="n">
-        <v>880</v>
+        <v>861.8499755859375</v>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2394" s="2" t="n">
-        <v>45243</v>
+        <v>44956</v>
       </c>
       <c r="C2394" t="n">
-        <v>783.4000244140625</v>
+        <v>305.75</v>
       </c>
       <c r="D2394" t="n">
-        <v>722.0999755859375</v>
+        <v>250.25</v>
       </c>
       <c r="E2394" t="n">
-        <v>775.9500122070312</v>
+        <v>267.7999877929688</v>
       </c>
       <c r="F2394" t="n">
         <v>2</v>
       </c>
       <c r="G2394" t="n">
-        <v>722.0999755859375</v>
+        <v>250.25</v>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2395" s="2" t="n">
-        <v>45334</v>
+        <v>45012</v>
       </c>
       <c r="C2395" t="n">
-        <v>891</v>
+        <v>266.5</v>
       </c>
       <c r="D2395" t="n">
-        <v>771</v>
+        <v>250.5</v>
       </c>
       <c r="E2395" t="n">
-        <v>872.25</v>
+        <v>261.1499938964844</v>
       </c>
       <c r="F2395" t="n">
         <v>2</v>
       </c>
       <c r="G2395" t="n">
-        <v>771</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2396" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2396" t="n">
-        <v>1048</v>
+        <v>623.7999877929688</v>
       </c>
       <c r="D2396" t="n">
-        <v>985.2000122070312</v>
+        <v>564.5999755859375</v>
       </c>
       <c r="E2396" t="n">
-        <v>1042.449951171875</v>
+        <v>614.1500244140625</v>
       </c>
       <c r="F2396" t="n">
         <v>2</v>
       </c>
       <c r="G2396" t="n">
-        <v>985.2000122070312</v>
+        <v>564.5999755859375</v>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2397" s="2" t="n">
-        <v>44900</v>
+        <v>44816</v>
       </c>
       <c r="C2397" t="n">
-        <v>334.7000122070312</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="D2397" t="n">
-        <v>306.6499938964844</v>
+        <v>108.5999984741211</v>
       </c>
       <c r="E2397" t="n">
-        <v>309.3500061035156</v>
+        <v>111</v>
       </c>
       <c r="F2397" t="n">
         <v>1</v>
       </c>
       <c r="G2397" t="n">
-        <v>334.7000122070312</v>
+        <v>114.6500015258789</v>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2398" s="2" t="n">
-        <v>44949</v>
+        <v>44865</v>
       </c>
       <c r="C2398" t="n">
-        <v>312.6000061035156</v>
+        <v>112.1999969482422</v>
       </c>
       <c r="D2398" t="n">
-        <v>287.5499877929688</v>
+        <v>105.1500015258789</v>
       </c>
       <c r="E2398" t="n">
-        <v>290.8999938964844</v>
+        <v>108.9499969482422</v>
       </c>
       <c r="F2398" t="n">
         <v>1</v>
       </c>
       <c r="G2398" t="n">
-        <v>312.6000061035156</v>
+        <v>112.1999969482422</v>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2399" s="2" t="n">
-        <v>45327</v>
+        <v>45180</v>
       </c>
       <c r="C2399" t="n">
-        <v>861.8499755859375</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D2399" t="n">
-        <v>817.0999755859375</v>
+        <v>133.3000030517578</v>
       </c>
       <c r="E2399" t="n">
-        <v>833.4000244140625</v>
+        <v>135.6999969482422</v>
       </c>
       <c r="F2399" t="n">
         <v>1</v>
       </c>
       <c r="G2399" t="n">
-        <v>861.8499755859375</v>
+        <v>147.1499938964844</v>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2400" s="2" t="n">
-        <v>44956</v>
+        <v>45222</v>
       </c>
       <c r="C2400" t="n">
-        <v>305.75</v>
+        <v>135.8999938964844</v>
       </c>
       <c r="D2400" t="n">
-        <v>250.25</v>
+        <v>127</v>
       </c>
       <c r="E2400" t="n">
-        <v>267.7999877929688</v>
+        <v>132.1999969482422</v>
       </c>
       <c r="F2400" t="n">
         <v>2</v>
       </c>
       <c r="G2400" t="n">
-        <v>250.25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2401" s="2" t="n">
-        <v>45012</v>
+        <v>45334</v>
       </c>
       <c r="C2401" t="n">
-        <v>266.5</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="D2401" t="n">
-        <v>250.5</v>
+        <v>171.75</v>
       </c>
       <c r="E2401" t="n">
-        <v>261.1499938964844</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="F2401" t="n">
         <v>2</v>
       </c>
       <c r="G2401" t="n">
-        <v>250.5</v>
+        <v>171.75</v>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2402" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2402" t="n">
-        <v>623.7999877929688</v>
+        <v>260.6000061035156</v>
       </c>
       <c r="D2402" t="n">
-        <v>564.5999755859375</v>
+        <v>221</v>
       </c>
       <c r="E2402" t="n">
-        <v>614.1500244140625</v>
+        <v>258.7999877929688</v>
       </c>
       <c r="F2402" t="n">
         <v>2</v>
       </c>
       <c r="G2402" t="n">
-        <v>564.5999755859375</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2403" s="2" t="n">
-        <v>44816</v>
+        <v>45180</v>
       </c>
       <c r="C2403" t="n">
-        <v>114.6500015258789</v>
+        <v>67927.2265625</v>
       </c>
       <c r="D2403" t="n">
-        <v>108.5999984741211</v>
+        <v>66735.84375</v>
       </c>
       <c r="E2403" t="n">
-        <v>111</v>
+        <v>67838.6328125</v>
       </c>
       <c r="F2403" t="n">
         <v>1</v>
       </c>
       <c r="G2403" t="n">
-        <v>114.6500015258789</v>
+        <v>67927.2265625</v>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2404" s="2" t="n">
-        <v>44865</v>
+        <v>45306</v>
       </c>
       <c r="C2404" t="n">
-        <v>112.1999969482422</v>
+        <v>73427.59375</v>
       </c>
       <c r="D2404" t="n">
-        <v>105.1500015258789</v>
+        <v>70665.5</v>
       </c>
       <c r="E2404" t="n">
-        <v>108.9499969482422</v>
+        <v>71683.2265625</v>
       </c>
       <c r="F2404" t="n">
         <v>1</v>
       </c>
       <c r="G2404" t="n">
-        <v>112.1999969482422</v>
+        <v>73427.59375</v>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2405" s="2" t="n">
-        <v>45180</v>
+        <v>45390</v>
       </c>
       <c r="C2405" t="n">
-        <v>147.1499938964844</v>
+        <v>75124.28125</v>
       </c>
       <c r="D2405" t="n">
-        <v>133.3000030517578</v>
+        <v>74189.3125</v>
       </c>
       <c r="E2405" t="n">
-        <v>135.6999969482422</v>
+        <v>74244.8984375</v>
       </c>
       <c r="F2405" t="n">
         <v>1</v>
       </c>
       <c r="G2405" t="n">
-        <v>147.1499938964844</v>
+        <v>75124.28125</v>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2406" s="2" t="n">
-        <v>45222</v>
+        <v>45005</v>
       </c>
       <c r="C2406" t="n">
-        <v>135.8999938964844</v>
+        <v>58418.78125</v>
       </c>
       <c r="D2406" t="n">
-        <v>127</v>
+        <v>57084.91015625</v>
       </c>
       <c r="E2406" t="n">
-        <v>132.1999969482422</v>
+        <v>57527.1015625</v>
       </c>
       <c r="F2406" t="n">
         <v>2</v>
       </c>
       <c r="G2406" t="n">
-        <v>127</v>
+        <v>57084.91015625</v>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2407" s="2" t="n">
-        <v>45334</v>
+        <v>45166</v>
       </c>
       <c r="C2407" t="n">
-        <v>190.3999938964844</v>
+        <v>65473.26953125</v>
       </c>
       <c r="D2407" t="n">
-        <v>171.75</v>
+        <v>64723.62890625</v>
       </c>
       <c r="E2407" t="n">
-        <v>188.3000030517578</v>
+        <v>65387.16015625</v>
       </c>
       <c r="F2407" t="n">
         <v>2</v>
       </c>
       <c r="G2407" t="n">
-        <v>171.75</v>
+        <v>64723.62890625</v>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2408" s="2" t="n">
-        <v>45425</v>
+        <v>45222</v>
       </c>
       <c r="C2408" t="n">
-        <v>260.6000061035156</v>
+        <v>65453.921875</v>
       </c>
       <c r="D2408" t="n">
-        <v>221</v>
+        <v>63092.98046875</v>
       </c>
       <c r="E2408" t="n">
-        <v>258.7999877929688</v>
+        <v>63782.80078125</v>
       </c>
       <c r="F2408" t="n">
         <v>2</v>
       </c>
       <c r="G2408" t="n">
-        <v>221</v>
+        <v>63092.98046875</v>
       </c>
     </row>
   </sheetData>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2408"/>
+  <dimension ref="A1:G2414"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -60649,6 +60649,156 @@
         <v>63092.98046875</v>
       </c>
     </row>
+    <row r="2409">
+      <c r="A2409" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2409" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="C2409" t="n">
+        <v>9086.75</v>
+      </c>
+      <c r="D2409" t="n">
+        <v>8824.599609375</v>
+      </c>
+      <c r="E2409" t="n">
+        <v>8831.400390625</v>
+      </c>
+      <c r="F2409" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2409" t="n">
+        <v>9086.75</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2410" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C2410" t="n">
+        <v>11789.9501953125</v>
+      </c>
+      <c r="D2410" t="n">
+        <v>11271.349609375</v>
+      </c>
+      <c r="E2410" t="n">
+        <v>11635.900390625</v>
+      </c>
+      <c r="F2410" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2410" t="n">
+        <v>11789.9501953125</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2411" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="C2411" t="n">
+        <v>14141</v>
+      </c>
+      <c r="D2411" t="n">
+        <v>13702.5498046875</v>
+      </c>
+      <c r="E2411" t="n">
+        <v>14062.2001953125</v>
+      </c>
+      <c r="F2411" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2411" t="n">
+        <v>14141</v>
+      </c>
+    </row>
+    <row r="2412">
+      <c r="A2412" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2412" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="C2412" t="n">
+        <v>8490.900390625</v>
+      </c>
+      <c r="D2412" t="n">
+        <v>8194.599609375</v>
+      </c>
+      <c r="E2412" t="n">
+        <v>8466.7998046875</v>
+      </c>
+      <c r="F2412" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2412" t="n">
+        <v>8194.599609375</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2413" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="C2413" t="n">
+        <v>11373.75</v>
+      </c>
+      <c r="D2413" t="n">
+        <v>10810.75</v>
+      </c>
+      <c r="E2413" t="n">
+        <v>11033.099609375</v>
+      </c>
+      <c r="F2413" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2413" t="n">
+        <v>10810.75</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414" t="inlineStr">
+        <is>
+          <t>^NSEMDCP50</t>
+        </is>
+      </c>
+      <c r="B2414" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C2414" t="n">
+        <v>13364.349609375</v>
+      </c>
+      <c r="D2414" t="n">
+        <v>12837</v>
+      </c>
+      <c r="E2414" t="n">
+        <v>13329.9501953125</v>
+      </c>
+      <c r="F2414" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2414" t="n">
+        <v>12837</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -59752,1051 +59752,1051 @@
     <row r="2373">
       <c r="A2373" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2373" s="2" t="n">
-        <v>45264</v>
+        <v>45180</v>
       </c>
       <c r="C2373" t="n">
-        <v>2015.449951171875</v>
+        <v>67927.2265625</v>
       </c>
       <c r="D2373" t="n">
-        <v>1918.25</v>
+        <v>66735.84375</v>
       </c>
       <c r="E2373" t="n">
-        <v>1928.75</v>
+        <v>67838.6328125</v>
       </c>
       <c r="F2373" t="n">
         <v>1</v>
       </c>
       <c r="G2373" t="n">
-        <v>2015.449951171875</v>
+        <v>67927.2265625</v>
       </c>
     </row>
     <row r="2374">
       <c r="A2374" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2374" s="2" t="n">
-        <v>45355</v>
+        <v>45306</v>
       </c>
       <c r="C2374" t="n">
-        <v>2143.800048828125</v>
+        <v>73427.59375</v>
       </c>
       <c r="D2374" t="n">
-        <v>2047.650024414062</v>
+        <v>70665.5</v>
       </c>
       <c r="E2374" t="n">
-        <v>2100.25</v>
+        <v>71683.2265625</v>
       </c>
       <c r="F2374" t="n">
         <v>1</v>
       </c>
       <c r="G2374" t="n">
-        <v>2143.800048828125</v>
+        <v>73427.59375</v>
       </c>
     </row>
     <row r="2375">
       <c r="A2375" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2375" s="2" t="n">
-        <v>45425</v>
+        <v>45390</v>
       </c>
       <c r="C2375" t="n">
-        <v>2352</v>
+        <v>75124.28125</v>
       </c>
       <c r="D2375" t="n">
-        <v>2119.199951171875</v>
+        <v>74189.3125</v>
       </c>
       <c r="E2375" t="n">
-        <v>2193.75</v>
+        <v>74244.8984375</v>
       </c>
       <c r="F2375" t="n">
         <v>1</v>
       </c>
       <c r="G2375" t="n">
-        <v>2352</v>
+        <v>75124.28125</v>
       </c>
     </row>
     <row r="2376">
       <c r="A2376" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2376" s="2" t="n">
-        <v>45117</v>
+        <v>45005</v>
       </c>
       <c r="C2376" t="n">
-        <v>1866.949951171875</v>
+        <v>58418.78125</v>
       </c>
       <c r="D2376" t="n">
-        <v>1772.75</v>
+        <v>57084.91015625</v>
       </c>
       <c r="E2376" t="n">
-        <v>1849.849975585938</v>
+        <v>57527.1015625</v>
       </c>
       <c r="F2376" t="n">
         <v>2</v>
       </c>
       <c r="G2376" t="n">
-        <v>1772.75</v>
+        <v>57084.91015625</v>
       </c>
     </row>
     <row r="2377">
       <c r="A2377" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2377" s="2" t="n">
-        <v>45222</v>
+        <v>45166</v>
       </c>
       <c r="C2377" t="n">
-        <v>1858.5</v>
+        <v>65473.26953125</v>
       </c>
       <c r="D2377" t="n">
-        <v>1773</v>
+        <v>64723.62890625</v>
       </c>
       <c r="E2377" t="n">
-        <v>1826.949951171875</v>
+        <v>65387.16015625</v>
       </c>
       <c r="F2377" t="n">
         <v>2</v>
       </c>
       <c r="G2377" t="n">
-        <v>1773</v>
+        <v>64723.62890625</v>
       </c>
     </row>
     <row r="2378">
       <c r="A2378" t="inlineStr">
         <is>
-          <t>ASTRAL.NS</t>
+          <t>^BSESN</t>
         </is>
       </c>
       <c r="B2378" s="2" t="n">
-        <v>45306</v>
+        <v>45222</v>
       </c>
       <c r="C2378" t="n">
-        <v>1859</v>
+        <v>65453.921875</v>
       </c>
       <c r="D2378" t="n">
-        <v>1740</v>
+        <v>63092.98046875</v>
       </c>
       <c r="E2378" t="n">
-        <v>1850.75</v>
+        <v>63782.80078125</v>
       </c>
       <c r="F2378" t="n">
         <v>2</v>
       </c>
       <c r="G2378" t="n">
-        <v>1740</v>
+        <v>63092.98046875</v>
       </c>
     </row>
     <row r="2379">
       <c r="A2379" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2379" s="2" t="n">
-        <v>45047</v>
+        <v>44907</v>
       </c>
       <c r="C2379" t="n">
-        <v>309.7999877929688</v>
+        <v>9086.75</v>
       </c>
       <c r="D2379" t="n">
-        <v>296.1499938964844</v>
+        <v>8824.599609375</v>
       </c>
       <c r="E2379" t="n">
-        <v>296.6499938964844</v>
+        <v>8831.400390625</v>
       </c>
       <c r="F2379" t="n">
         <v>1</v>
       </c>
       <c r="G2379" t="n">
-        <v>309.7999877929688</v>
+        <v>9086.75</v>
       </c>
     </row>
     <row r="2380">
       <c r="A2380" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2380" s="2" t="n">
-        <v>45138</v>
+        <v>45180</v>
       </c>
       <c r="C2380" t="n">
-        <v>329.2999877929688</v>
+        <v>11789.9501953125</v>
       </c>
       <c r="D2380" t="n">
-        <v>313.7000122070312</v>
+        <v>11271.349609375</v>
       </c>
       <c r="E2380" t="n">
-        <v>318.2999877929688</v>
+        <v>11635.900390625</v>
       </c>
       <c r="F2380" t="n">
         <v>1</v>
       </c>
       <c r="G2380" t="n">
-        <v>329.2999877929688</v>
+        <v>11789.9501953125</v>
       </c>
     </row>
     <row r="2381">
       <c r="A2381" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2381" s="2" t="n">
-        <v>45348</v>
+        <v>45341</v>
       </c>
       <c r="C2381" t="n">
-        <v>480.4500122070312</v>
+        <v>14141</v>
       </c>
       <c r="D2381" t="n">
-        <v>453.2000122070312</v>
+        <v>13702.5498046875</v>
       </c>
       <c r="E2381" t="n">
-        <v>463.4500122070312</v>
+        <v>14062.2001953125</v>
       </c>
       <c r="F2381" t="n">
         <v>1</v>
       </c>
       <c r="G2381" t="n">
-        <v>480.4500122070312</v>
+        <v>14141</v>
       </c>
     </row>
     <row r="2382">
       <c r="A2382" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2382" s="2" t="n">
-        <v>45152</v>
+        <v>45012</v>
       </c>
       <c r="C2382" t="n">
-        <v>298.3999938964844</v>
+        <v>8490.900390625</v>
       </c>
       <c r="D2382" t="n">
-        <v>287.7000122070312</v>
+        <v>8194.599609375</v>
       </c>
       <c r="E2382" t="n">
-        <v>290.3500061035156</v>
+        <v>8466.7998046875</v>
       </c>
       <c r="F2382" t="n">
         <v>2</v>
       </c>
       <c r="G2382" t="n">
-        <v>287.7000122070312</v>
+        <v>8194.599609375</v>
       </c>
     </row>
     <row r="2383">
       <c r="A2383" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2383" s="2" t="n">
         <v>45222</v>
       </c>
       <c r="C2383" t="n">
-        <v>345.6000061035156</v>
+        <v>11373.75</v>
       </c>
       <c r="D2383" t="n">
-        <v>318.9500122070312</v>
+        <v>10810.75</v>
       </c>
       <c r="E2383" t="n">
-        <v>326.2999877929688</v>
+        <v>11033.099609375</v>
       </c>
       <c r="F2383" t="n">
         <v>2</v>
       </c>
       <c r="G2383" t="n">
-        <v>318.9500122070312</v>
+        <v>10810.75</v>
       </c>
     </row>
     <row r="2384">
       <c r="A2384" t="inlineStr">
         <is>
-          <t>GRANULES.NS</t>
+          <t>^NSEMDCP50</t>
         </is>
       </c>
       <c r="B2384" s="2" t="n">
-        <v>45425</v>
+        <v>45369</v>
       </c>
       <c r="C2384" t="n">
-        <v>410.2000122070312</v>
+        <v>13364.349609375</v>
       </c>
       <c r="D2384" t="n">
-        <v>389.3500061035156</v>
+        <v>12837</v>
       </c>
       <c r="E2384" t="n">
-        <v>406.75</v>
+        <v>13329.9501953125</v>
       </c>
       <c r="F2384" t="n">
         <v>2</v>
       </c>
       <c r="G2384" t="n">
-        <v>389.3500061035156</v>
+        <v>12837</v>
       </c>
     </row>
     <row r="2385">
       <c r="A2385" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2385" s="2" t="n">
-        <v>44788</v>
+        <v>45264</v>
       </c>
       <c r="C2385" t="n">
-        <v>408</v>
+        <v>2015.449951171875</v>
       </c>
       <c r="D2385" t="n">
-        <v>384.5499877929688</v>
+        <v>1918.25</v>
       </c>
       <c r="E2385" t="n">
-        <v>386.3500061035156</v>
+        <v>1928.75</v>
       </c>
       <c r="F2385" t="n">
         <v>1</v>
       </c>
       <c r="G2385" t="n">
-        <v>408</v>
+        <v>2015.449951171875</v>
       </c>
     </row>
     <row r="2386">
       <c r="A2386" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2386" s="2" t="n">
-        <v>44914</v>
+        <v>45355</v>
       </c>
       <c r="C2386" t="n">
-        <v>451</v>
+        <v>2143.800048828125</v>
       </c>
       <c r="D2386" t="n">
-        <v>406.8999938964844</v>
+        <v>2047.650024414062</v>
       </c>
       <c r="E2386" t="n">
-        <v>429.1499938964844</v>
+        <v>2100.25</v>
       </c>
       <c r="F2386" t="n">
         <v>1</v>
       </c>
       <c r="G2386" t="n">
-        <v>451</v>
+        <v>2143.800048828125</v>
       </c>
     </row>
     <row r="2387">
       <c r="A2387" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2387" s="2" t="n">
-        <v>45187</v>
+        <v>45425</v>
       </c>
       <c r="C2387" t="n">
-        <v>880</v>
+        <v>2352</v>
       </c>
       <c r="D2387" t="n">
-        <v>775</v>
+        <v>2119.199951171875</v>
       </c>
       <c r="E2387" t="n">
-        <v>802.7999877929688</v>
+        <v>2193.75</v>
       </c>
       <c r="F2387" t="n">
         <v>1</v>
       </c>
       <c r="G2387" t="n">
-        <v>880</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="2388">
       <c r="A2388" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2388" s="2" t="n">
-        <v>45243</v>
+        <v>45117</v>
       </c>
       <c r="C2388" t="n">
-        <v>783.4000244140625</v>
+        <v>1866.949951171875</v>
       </c>
       <c r="D2388" t="n">
-        <v>722.0999755859375</v>
+        <v>1772.75</v>
       </c>
       <c r="E2388" t="n">
-        <v>775.9500122070312</v>
+        <v>1849.849975585938</v>
       </c>
       <c r="F2388" t="n">
         <v>2</v>
       </c>
       <c r="G2388" t="n">
-        <v>722.0999755859375</v>
+        <v>1772.75</v>
       </c>
     </row>
     <row r="2389">
       <c r="A2389" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2389" s="2" t="n">
-        <v>45334</v>
+        <v>45222</v>
       </c>
       <c r="C2389" t="n">
-        <v>891</v>
+        <v>1858.5</v>
       </c>
       <c r="D2389" t="n">
-        <v>771</v>
+        <v>1773</v>
       </c>
       <c r="E2389" t="n">
-        <v>872.25</v>
+        <v>1826.949951171875</v>
       </c>
       <c r="F2389" t="n">
         <v>2</v>
       </c>
       <c r="G2389" t="n">
-        <v>771</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="2390">
       <c r="A2390" t="inlineStr">
         <is>
-          <t>GLENMARK.NS</t>
+          <t>ASTRAL.NS</t>
         </is>
       </c>
       <c r="B2390" s="2" t="n">
-        <v>45425</v>
+        <v>45306</v>
       </c>
       <c r="C2390" t="n">
-        <v>1048</v>
+        <v>1859</v>
       </c>
       <c r="D2390" t="n">
-        <v>985.2000122070312</v>
+        <v>1740</v>
       </c>
       <c r="E2390" t="n">
-        <v>1042.449951171875</v>
+        <v>1850.75</v>
       </c>
       <c r="F2390" t="n">
         <v>2</v>
       </c>
       <c r="G2390" t="n">
-        <v>985.2000122070312</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="2391">
       <c r="A2391" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2391" s="2" t="n">
-        <v>44900</v>
+        <v>45047</v>
       </c>
       <c r="C2391" t="n">
-        <v>334.7000122070312</v>
+        <v>309.7999877929688</v>
       </c>
       <c r="D2391" t="n">
-        <v>306.6499938964844</v>
+        <v>296.1499938964844</v>
       </c>
       <c r="E2391" t="n">
-        <v>309.3500061035156</v>
+        <v>296.6499938964844</v>
       </c>
       <c r="F2391" t="n">
         <v>1</v>
       </c>
       <c r="G2391" t="n">
-        <v>334.7000122070312</v>
+        <v>309.7999877929688</v>
       </c>
     </row>
     <row r="2392">
       <c r="A2392" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2392" s="2" t="n">
-        <v>44949</v>
+        <v>45138</v>
       </c>
       <c r="C2392" t="n">
-        <v>312.6000061035156</v>
+        <v>329.2999877929688</v>
       </c>
       <c r="D2392" t="n">
-        <v>287.5499877929688</v>
+        <v>313.7000122070312</v>
       </c>
       <c r="E2392" t="n">
-        <v>290.8999938964844</v>
+        <v>318.2999877929688</v>
       </c>
       <c r="F2392" t="n">
         <v>1</v>
       </c>
       <c r="G2392" t="n">
-        <v>312.6000061035156</v>
+        <v>329.2999877929688</v>
       </c>
     </row>
     <row r="2393">
       <c r="A2393" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2393" s="2" t="n">
-        <v>45327</v>
+        <v>45348</v>
       </c>
       <c r="C2393" t="n">
-        <v>861.8499755859375</v>
+        <v>480.4500122070312</v>
       </c>
       <c r="D2393" t="n">
-        <v>817.0999755859375</v>
+        <v>453.2000122070312</v>
       </c>
       <c r="E2393" t="n">
-        <v>833.4000244140625</v>
+        <v>463.4500122070312</v>
       </c>
       <c r="F2393" t="n">
         <v>1</v>
       </c>
       <c r="G2393" t="n">
-        <v>861.8499755859375</v>
+        <v>480.4500122070312</v>
       </c>
     </row>
     <row r="2394">
       <c r="A2394" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2394" s="2" t="n">
-        <v>44956</v>
+        <v>45152</v>
       </c>
       <c r="C2394" t="n">
-        <v>305.75</v>
+        <v>298.3999938964844</v>
       </c>
       <c r="D2394" t="n">
-        <v>250.25</v>
+        <v>287.7000122070312</v>
       </c>
       <c r="E2394" t="n">
-        <v>267.7999877929688</v>
+        <v>290.3500061035156</v>
       </c>
       <c r="F2394" t="n">
         <v>2</v>
       </c>
       <c r="G2394" t="n">
-        <v>250.25</v>
+        <v>287.7000122070312</v>
       </c>
     </row>
     <row r="2395">
       <c r="A2395" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2395" s="2" t="n">
-        <v>45012</v>
+        <v>45222</v>
       </c>
       <c r="C2395" t="n">
-        <v>266.5</v>
+        <v>345.6000061035156</v>
       </c>
       <c r="D2395" t="n">
-        <v>250.5</v>
+        <v>318.9500122070312</v>
       </c>
       <c r="E2395" t="n">
-        <v>261.1499938964844</v>
+        <v>326.2999877929688</v>
       </c>
       <c r="F2395" t="n">
         <v>2</v>
       </c>
       <c r="G2395" t="n">
-        <v>250.5</v>
+        <v>318.9500122070312</v>
       </c>
     </row>
     <row r="2396">
       <c r="A2396" t="inlineStr">
         <is>
-          <t>BSOFT.NS</t>
+          <t>GRANULES.NS</t>
         </is>
       </c>
       <c r="B2396" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2396" t="n">
-        <v>623.7999877929688</v>
+        <v>410.2000122070312</v>
       </c>
       <c r="D2396" t="n">
-        <v>564.5999755859375</v>
+        <v>389.3500061035156</v>
       </c>
       <c r="E2396" t="n">
-        <v>614.1500244140625</v>
+        <v>406.75</v>
       </c>
       <c r="F2396" t="n">
         <v>2</v>
       </c>
       <c r="G2396" t="n">
-        <v>564.5999755859375</v>
+        <v>389.3500061035156</v>
       </c>
     </row>
     <row r="2397">
       <c r="A2397" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2397" s="2" t="n">
-        <v>44816</v>
+        <v>44900</v>
       </c>
       <c r="C2397" t="n">
-        <v>114.6500015258789</v>
+        <v>334.7000122070312</v>
       </c>
       <c r="D2397" t="n">
-        <v>108.5999984741211</v>
+        <v>306.6499938964844</v>
       </c>
       <c r="E2397" t="n">
-        <v>111</v>
+        <v>309.3500061035156</v>
       </c>
       <c r="F2397" t="n">
         <v>1</v>
       </c>
       <c r="G2397" t="n">
-        <v>114.6500015258789</v>
+        <v>334.7000122070312</v>
       </c>
     </row>
     <row r="2398">
       <c r="A2398" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2398" s="2" t="n">
-        <v>44865</v>
+        <v>44949</v>
       </c>
       <c r="C2398" t="n">
-        <v>112.1999969482422</v>
+        <v>312.6000061035156</v>
       </c>
       <c r="D2398" t="n">
-        <v>105.1500015258789</v>
+        <v>287.5499877929688</v>
       </c>
       <c r="E2398" t="n">
-        <v>108.9499969482422</v>
+        <v>290.8999938964844</v>
       </c>
       <c r="F2398" t="n">
         <v>1</v>
       </c>
       <c r="G2398" t="n">
-        <v>112.1999969482422</v>
+        <v>312.6000061035156</v>
       </c>
     </row>
     <row r="2399">
       <c r="A2399" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2399" s="2" t="n">
-        <v>45180</v>
+        <v>45327</v>
       </c>
       <c r="C2399" t="n">
-        <v>147.1499938964844</v>
+        <v>861.8499755859375</v>
       </c>
       <c r="D2399" t="n">
-        <v>133.3000030517578</v>
+        <v>817.0999755859375</v>
       </c>
       <c r="E2399" t="n">
-        <v>135.6999969482422</v>
+        <v>833.4000244140625</v>
       </c>
       <c r="F2399" t="n">
         <v>1</v>
       </c>
       <c r="G2399" t="n">
-        <v>147.1499938964844</v>
+        <v>861.8499755859375</v>
       </c>
     </row>
     <row r="2400">
       <c r="A2400" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2400" s="2" t="n">
-        <v>45222</v>
+        <v>44956</v>
       </c>
       <c r="C2400" t="n">
-        <v>135.8999938964844</v>
+        <v>305.75</v>
       </c>
       <c r="D2400" t="n">
-        <v>127</v>
+        <v>250.25</v>
       </c>
       <c r="E2400" t="n">
-        <v>132.1999969482422</v>
+        <v>267.7999877929688</v>
       </c>
       <c r="F2400" t="n">
         <v>2</v>
       </c>
       <c r="G2400" t="n">
-        <v>127</v>
+        <v>250.25</v>
       </c>
     </row>
     <row r="2401">
       <c r="A2401" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2401" s="2" t="n">
-        <v>45334</v>
+        <v>45012</v>
       </c>
       <c r="C2401" t="n">
-        <v>190.3999938964844</v>
+        <v>266.5</v>
       </c>
       <c r="D2401" t="n">
-        <v>171.75</v>
+        <v>250.5</v>
       </c>
       <c r="E2401" t="n">
-        <v>188.3000030517578</v>
+        <v>261.1499938964844</v>
       </c>
       <c r="F2401" t="n">
         <v>2</v>
       </c>
       <c r="G2401" t="n">
-        <v>171.75</v>
+        <v>250.5</v>
       </c>
     </row>
     <row r="2402">
       <c r="A2402" t="inlineStr">
         <is>
-          <t>BEL.NS</t>
+          <t>BSOFT.NS</t>
         </is>
       </c>
       <c r="B2402" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="C2402" t="n">
-        <v>260.6000061035156</v>
+        <v>623.7999877929688</v>
       </c>
       <c r="D2402" t="n">
-        <v>221</v>
+        <v>564.5999755859375</v>
       </c>
       <c r="E2402" t="n">
-        <v>258.7999877929688</v>
+        <v>614.1500244140625</v>
       </c>
       <c r="F2402" t="n">
         <v>2</v>
       </c>
       <c r="G2402" t="n">
-        <v>221</v>
+        <v>564.5999755859375</v>
       </c>
     </row>
     <row r="2403">
       <c r="A2403" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2403" s="2" t="n">
-        <v>45180</v>
+        <v>44788</v>
       </c>
       <c r="C2403" t="n">
-        <v>67927.2265625</v>
+        <v>408</v>
       </c>
       <c r="D2403" t="n">
-        <v>66735.84375</v>
+        <v>384.5499877929688</v>
       </c>
       <c r="E2403" t="n">
-        <v>67838.6328125</v>
+        <v>386.3500061035156</v>
       </c>
       <c r="F2403" t="n">
         <v>1</v>
       </c>
       <c r="G2403" t="n">
-        <v>67927.2265625</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2404">
       <c r="A2404" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2404" s="2" t="n">
-        <v>45306</v>
+        <v>44914</v>
       </c>
       <c r="C2404" t="n">
-        <v>73427.59375</v>
+        <v>451</v>
       </c>
       <c r="D2404" t="n">
-        <v>70665.5</v>
+        <v>406.8999938964844</v>
       </c>
       <c r="E2404" t="n">
-        <v>71683.2265625</v>
+        <v>429.1499938964844</v>
       </c>
       <c r="F2404" t="n">
         <v>1</v>
       </c>
       <c r="G2404" t="n">
-        <v>73427.59375</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2405">
       <c r="A2405" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2405" s="2" t="n">
-        <v>45390</v>
+        <v>45187</v>
       </c>
       <c r="C2405" t="n">
-        <v>75124.28125</v>
+        <v>880</v>
       </c>
       <c r="D2405" t="n">
-        <v>74189.3125</v>
+        <v>775</v>
       </c>
       <c r="E2405" t="n">
-        <v>74244.8984375</v>
+        <v>802.7999877929688</v>
       </c>
       <c r="F2405" t="n">
         <v>1</v>
       </c>
       <c r="G2405" t="n">
-        <v>75124.28125</v>
+        <v>880</v>
       </c>
     </row>
     <row r="2406">
       <c r="A2406" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2406" s="2" t="n">
-        <v>45005</v>
+        <v>45243</v>
       </c>
       <c r="C2406" t="n">
-        <v>58418.78125</v>
+        <v>783.4000244140625</v>
       </c>
       <c r="D2406" t="n">
-        <v>57084.91015625</v>
+        <v>722.0999755859375</v>
       </c>
       <c r="E2406" t="n">
-        <v>57527.1015625</v>
+        <v>775.9500122070312</v>
       </c>
       <c r="F2406" t="n">
         <v>2</v>
       </c>
       <c r="G2406" t="n">
-        <v>57084.91015625</v>
+        <v>722.0999755859375</v>
       </c>
     </row>
     <row r="2407">
       <c r="A2407" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2407" s="2" t="n">
-        <v>45166</v>
+        <v>45334</v>
       </c>
       <c r="C2407" t="n">
-        <v>65473.26953125</v>
+        <v>891</v>
       </c>
       <c r="D2407" t="n">
-        <v>64723.62890625</v>
+        <v>771</v>
       </c>
       <c r="E2407" t="n">
-        <v>65387.16015625</v>
+        <v>872.25</v>
       </c>
       <c r="F2407" t="n">
         <v>2</v>
       </c>
       <c r="G2407" t="n">
-        <v>64723.62890625</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2408">
       <c r="A2408" t="inlineStr">
         <is>
-          <t>^BSESN</t>
+          <t>GLENMARK.NS</t>
         </is>
       </c>
       <c r="B2408" s="2" t="n">
-        <v>45222</v>
+        <v>45425</v>
       </c>
       <c r="C2408" t="n">
-        <v>65453.921875</v>
+        <v>1048</v>
       </c>
       <c r="D2408" t="n">
-        <v>63092.98046875</v>
+        <v>985.2000122070312</v>
       </c>
       <c r="E2408" t="n">
-        <v>63782.80078125</v>
+        <v>1042.449951171875</v>
       </c>
       <c r="F2408" t="n">
         <v>2</v>
       </c>
       <c r="G2408" t="n">
-        <v>63092.98046875</v>
+        <v>985.2000122070312</v>
       </c>
     </row>
     <row r="2409">
       <c r="A2409" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2409" s="2" t="n">
-        <v>44907</v>
+        <v>44816</v>
       </c>
       <c r="C2409" t="n">
-        <v>9086.75</v>
+        <v>114.6500015258789</v>
       </c>
       <c r="D2409" t="n">
-        <v>8824.599609375</v>
+        <v>108.5999984741211</v>
       </c>
       <c r="E2409" t="n">
-        <v>8831.400390625</v>
+        <v>111</v>
       </c>
       <c r="F2409" t="n">
         <v>1</v>
       </c>
       <c r="G2409" t="n">
-        <v>9086.75</v>
+        <v>114.6500015258789</v>
       </c>
     </row>
     <row r="2410">
       <c r="A2410" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2410" s="2" t="n">
-        <v>45180</v>
+        <v>44865</v>
       </c>
       <c r="C2410" t="n">
-        <v>11789.9501953125</v>
+        <v>112.1999969482422</v>
       </c>
       <c r="D2410" t="n">
-        <v>11271.349609375</v>
+        <v>105.1500015258789</v>
       </c>
       <c r="E2410" t="n">
-        <v>11635.900390625</v>
+        <v>108.9499969482422</v>
       </c>
       <c r="F2410" t="n">
         <v>1</v>
       </c>
       <c r="G2410" t="n">
-        <v>11789.9501953125</v>
+        <v>112.1999969482422</v>
       </c>
     </row>
     <row r="2411">
       <c r="A2411" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2411" s="2" t="n">
-        <v>45341</v>
+        <v>45180</v>
       </c>
       <c r="C2411" t="n">
-        <v>14141</v>
+        <v>147.1499938964844</v>
       </c>
       <c r="D2411" t="n">
-        <v>13702.5498046875</v>
+        <v>133.3000030517578</v>
       </c>
       <c r="E2411" t="n">
-        <v>14062.2001953125</v>
+        <v>135.6999969482422</v>
       </c>
       <c r="F2411" t="n">
         <v>1</v>
       </c>
       <c r="G2411" t="n">
-        <v>14141</v>
+        <v>147.1499938964844</v>
       </c>
     </row>
     <row r="2412">
       <c r="A2412" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2412" s="2" t="n">
-        <v>45012</v>
+        <v>45222</v>
       </c>
       <c r="C2412" t="n">
-        <v>8490.900390625</v>
+        <v>135.8999938964844</v>
       </c>
       <c r="D2412" t="n">
-        <v>8194.599609375</v>
+        <v>127</v>
       </c>
       <c r="E2412" t="n">
-        <v>8466.7998046875</v>
+        <v>132.1999969482422</v>
       </c>
       <c r="F2412" t="n">
         <v>2</v>
       </c>
       <c r="G2412" t="n">
-        <v>8194.599609375</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2413">
       <c r="A2413" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2413" s="2" t="n">
-        <v>45222</v>
+        <v>45334</v>
       </c>
       <c r="C2413" t="n">
-        <v>11373.75</v>
+        <v>190.3999938964844</v>
       </c>
       <c r="D2413" t="n">
-        <v>10810.75</v>
+        <v>171.75</v>
       </c>
       <c r="E2413" t="n">
-        <v>11033.099609375</v>
+        <v>188.3000030517578</v>
       </c>
       <c r="F2413" t="n">
         <v>2</v>
       </c>
       <c r="G2413" t="n">
-        <v>10810.75</v>
+        <v>171.75</v>
       </c>
     </row>
     <row r="2414">
       <c r="A2414" t="inlineStr">
         <is>
-          <t>^NSEMDCP50</t>
+          <t>BEL.NS</t>
         </is>
       </c>
       <c r="B2414" s="2" t="n">
-        <v>45369</v>
+        <v>45425</v>
       </c>
       <c r="C2414" t="n">
-        <v>13364.349609375</v>
+        <v>260.6000061035156</v>
       </c>
       <c r="D2414" t="n">
-        <v>12837</v>
+        <v>221</v>
       </c>
       <c r="E2414" t="n">
-        <v>13329.9501953125</v>
+        <v>258.7999877929688</v>
       </c>
       <c r="F2414" t="n">
         <v>2</v>
       </c>
       <c r="G2414" t="n">
-        <v>12837</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2673"/>
+  <dimension ref="A1:G2679"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67274,6 +67274,156 @@
         <v>870.25</v>
       </c>
     </row>
+    <row r="2674">
+      <c r="A2674" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2674" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C2674" t="n">
+        <v>2855</v>
+      </c>
+      <c r="D2674" t="n">
+        <v>2175.25</v>
+      </c>
+      <c r="E2674" t="n">
+        <v>2563.14990234375</v>
+      </c>
+      <c r="F2674" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2674" t="n">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="2675">
+      <c r="A2675" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2675" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="C2675" t="n">
+        <v>3393</v>
+      </c>
+      <c r="D2675" t="n">
+        <v>2676</v>
+      </c>
+      <c r="E2675" t="n">
+        <v>3114.39990234375</v>
+      </c>
+      <c r="F2675" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2675" t="n">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="2676">
+      <c r="A2676" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2676" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="C2676" t="n">
+        <v>3503.14990234375</v>
+      </c>
+      <c r="D2676" t="n">
+        <v>3282.550048828125</v>
+      </c>
+      <c r="E2676" t="n">
+        <v>3388.89990234375</v>
+      </c>
+      <c r="F2676" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2676" t="n">
+        <v>3503.14990234375</v>
+      </c>
+    </row>
+    <row r="2677">
+      <c r="A2677" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2677" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C2677" t="n">
+        <v>2750.89990234375</v>
+      </c>
+      <c r="D2677" t="n">
+        <v>2335.39990234375</v>
+      </c>
+      <c r="E2677" t="n">
+        <v>2624.949951171875</v>
+      </c>
+      <c r="F2677" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2677" t="n">
+        <v>2335.39990234375</v>
+      </c>
+    </row>
+    <row r="2678">
+      <c r="A2678" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2678" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C2678" t="n">
+        <v>2646.85009765625</v>
+      </c>
+      <c r="D2678" t="n">
+        <v>2129.699951171875</v>
+      </c>
+      <c r="E2678" t="n">
+        <v>2590.050048828125</v>
+      </c>
+      <c r="F2678" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2678" t="n">
+        <v>2129.699951171875</v>
+      </c>
+    </row>
+    <row r="2679">
+      <c r="A2679" t="inlineStr">
+        <is>
+          <t>ANGELONE.NS</t>
+        </is>
+      </c>
+      <c r="B2679" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="C2679" t="n">
+        <v>2316.050048828125</v>
+      </c>
+      <c r="D2679" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E2679" t="n">
+        <v>2129.64990234375</v>
+      </c>
+      <c r="F2679" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2679" t="n">
+        <v>2025</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/1wk/ph_pl_data_1wk.xlsx
+++ b/excel/1wk/ph_pl_data_1wk.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2685"/>
+  <dimension ref="A1:G2691"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -67574,6 +67574,156 @@
         <v>3232.050048828125</v>
       </c>
     </row>
+    <row r="2686">
+      <c r="A2686" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2686" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="C2686" t="n">
+        <v>185.8000030517578</v>
+      </c>
+      <c r="D2686" t="n">
+        <v>171.3500061035156</v>
+      </c>
+      <c r="E2686" t="n">
+        <v>178.1000061035156</v>
+      </c>
+      <c r="F2686" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2686" t="n">
+        <v>185.8000030517578</v>
+      </c>
+    </row>
+    <row r="2687">
+      <c r="A2687" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2687" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="C2687" t="n">
+        <v>187.3500061035156</v>
+      </c>
+      <c r="D2687" t="n">
+        <v>167.1999969482422</v>
+      </c>
+      <c r="E2687" t="n">
+        <v>168.1000061035156</v>
+      </c>
+      <c r="F2687" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2687" t="n">
+        <v>187.3500061035156</v>
+      </c>
+    </row>
+    <row r="2688">
+      <c r="A2688" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2688" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C2688" t="n">
+        <v>229.8000030517578</v>
+      </c>
+      <c r="D2688" t="n">
+        <v>190.6199951171875</v>
+      </c>
+      <c r="E2688" t="n">
+        <v>226.7700042724609</v>
+      </c>
+      <c r="F2688" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2688" t="n">
+        <v>229.8000030517578</v>
+      </c>
+    </row>
+    <row r="2689">
+      <c r="A2689" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2689" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C2689" t="n">
+        <v>155.3000030517578</v>
+      </c>
+      <c r="D2689" t="n">
+        <v>139.8000030517578</v>
+      </c>
+      <c r="E2689" t="n">
+        <v>151.25</v>
+      </c>
+      <c r="F2689" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2689" t="n">
+        <v>139.8000030517578</v>
+      </c>
+    </row>
+    <row r="2690">
+      <c r="A2690" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2690" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="C2690" t="n">
+        <v>172</v>
+      </c>
+      <c r="D2690" t="n">
+        <v>149.75</v>
+      </c>
+      <c r="E2690" t="n">
+        <v>169.8999938964844</v>
+      </c>
+      <c r="F2690" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2690" t="n">
+        <v>149.75</v>
+      </c>
+    </row>
+    <row r="2691">
+      <c r="A2691" t="inlineStr">
+        <is>
+          <t>NYKAA.NS</t>
+        </is>
+      </c>
+      <c r="B2691" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="C2691" t="n">
+        <v>169.6699981689453</v>
+      </c>
+      <c r="D2691" t="n">
+        <v>158.1000061035156</v>
+      </c>
+      <c r="E2691" t="n">
+        <v>159.6600036621094</v>
+      </c>
+      <c r="F2691" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2691" t="n">
+        <v>158.1000061035156</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
